--- a/data/2024/ssg/7,38_DE-12.xlsx
+++ b/data/2024/ssg/7,38_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="594">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -1358,12 +1358,6 @@
   </si>
   <si>
     <t>KF;NL</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>3;7;8;9;18;19;M 347;20;26;28;29;92;1102;946;84;89;90;95;Mh 39;355;898;1046;155;384;Aug 4;37;473;517;547;703;739;824;573;150;551;552;Lün 4;Wim 2;542;546;706;960/1;960/3;Re 13</t>
   </si>
   <si>
     <t>2602416-0</t>
@@ -7061,15 +7055,15 @@
         <v>31</v>
       </c>
       <c r="X64" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="Y64" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s">
         <v>154</v>
@@ -7078,13 +7072,13 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
+        <v>449</v>
+      </c>
+      <c r="E65" t="s">
+        <v>450</v>
+      </c>
+      <c r="F65" t="s">
         <v>451</v>
-      </c>
-      <c r="E65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F65" t="s">
-        <v>453</v>
       </c>
       <c r="G65" t="s">
         <v>272</v>
@@ -7120,13 +7114,13 @@
         <v>31</v>
       </c>
       <c r="R65" t="s">
+        <v>452</v>
+      </c>
+      <c r="S65" t="s">
+        <v>453</v>
+      </c>
+      <c r="T65" t="s">
         <v>454</v>
-      </c>
-      <c r="S65" t="s">
-        <v>455</v>
-      </c>
-      <c r="T65" t="s">
-        <v>456</v>
       </c>
       <c r="U65" t="s">
         <v>71</v>
@@ -7138,15 +7132,15 @@
         <v>31</v>
       </c>
       <c r="X65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Y65" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -7161,7 +7155,7 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G66" t="s">
         <v>67</v>
@@ -7170,10 +7164,10 @@
         <v>31</v>
       </c>
       <c r="I66" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J66" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K66" t="s">
         <v>33</v>
@@ -7194,10 +7188,10 @@
         <v>31</v>
       </c>
       <c r="Q66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="R66" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S66" t="s">
         <v>31</v>
@@ -7223,7 +7217,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7232,13 +7226,13 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
+        <v>464</v>
+      </c>
+      <c r="E67" t="s">
+        <v>465</v>
+      </c>
+      <c r="F67" t="s">
         <v>466</v>
-      </c>
-      <c r="E67" t="s">
-        <v>467</v>
-      </c>
-      <c r="F67" t="s">
-        <v>468</v>
       </c>
       <c r="G67" t="s">
         <v>67</v>
@@ -7247,10 +7241,10 @@
         <v>31</v>
       </c>
       <c r="I67" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J67" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s">
         <v>33</v>
@@ -7274,7 +7268,7 @@
         <v>31</v>
       </c>
       <c r="R67" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S67" t="s">
         <v>31</v>
@@ -7348,13 +7342,13 @@
         <v>31</v>
       </c>
       <c r="Q68" t="s">
+        <v>470</v>
+      </c>
+      <c r="R68" t="s">
+        <v>471</v>
+      </c>
+      <c r="S68" t="s">
         <v>472</v>
-      </c>
-      <c r="R68" t="s">
-        <v>473</v>
-      </c>
-      <c r="S68" t="s">
-        <v>474</v>
       </c>
       <c r="T68" t="s">
         <v>181</v>
@@ -7369,10 +7363,10 @@
         <v>31</v>
       </c>
       <c r="X68" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Y68" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -7386,13 +7380,13 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
+        <v>475</v>
+      </c>
+      <c r="E69" t="s">
+        <v>476</v>
+      </c>
+      <c r="F69" t="s">
         <v>477</v>
-      </c>
-      <c r="E69" t="s">
-        <v>478</v>
-      </c>
-      <c r="F69" t="s">
-        <v>479</v>
       </c>
       <c r="G69" t="s">
         <v>67</v>
@@ -7422,13 +7416,13 @@
         <v>31</v>
       </c>
       <c r="P69" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Q69" t="s">
         <v>343</v>
       </c>
       <c r="R69" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S69" t="s">
         <v>31</v>
@@ -7463,7 +7457,7 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E70" t="s">
         <v>310</v>
@@ -7472,13 +7466,13 @@
         <v>377</v>
       </c>
       <c r="G70" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H70" t="s">
         <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J70" t="s">
         <v>387</v>
@@ -7505,10 +7499,10 @@
         <v>374</v>
       </c>
       <c r="R70" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="S70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="T70" t="s">
         <v>355</v>
@@ -7526,12 +7520,12 @@
         <v>364</v>
       </c>
       <c r="Y70" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -7540,10 +7534,10 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E71" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F71" t="s">
         <v>187</v>
@@ -7582,7 +7576,7 @@
         <v>31</v>
       </c>
       <c r="R71" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S71" t="s">
         <v>31</v>
@@ -7608,7 +7602,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s">
         <v>154</v>
@@ -7617,13 +7611,13 @@
         <v>27</v>
       </c>
       <c r="D72" t="s">
+        <v>475</v>
+      </c>
+      <c r="E72" t="s">
+        <v>476</v>
+      </c>
+      <c r="F72" t="s">
         <v>477</v>
-      </c>
-      <c r="E72" t="s">
-        <v>478</v>
-      </c>
-      <c r="F72" t="s">
-        <v>479</v>
       </c>
       <c r="G72" t="s">
         <v>67</v>
@@ -7659,13 +7653,13 @@
         <v>31</v>
       </c>
       <c r="R72" t="s">
+        <v>491</v>
+      </c>
+      <c r="S72" t="s">
+        <v>492</v>
+      </c>
+      <c r="T72" t="s">
         <v>493</v>
-      </c>
-      <c r="S72" t="s">
-        <v>494</v>
-      </c>
-      <c r="T72" t="s">
-        <v>495</v>
       </c>
       <c r="U72" t="s">
         <v>71</v>
@@ -7677,15 +7671,15 @@
         <v>31</v>
       </c>
       <c r="X72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y72" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B73" t="s">
         <v>154</v>
@@ -7697,10 +7691,10 @@
         <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F73" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G73" t="s">
         <v>67</v>
@@ -7709,10 +7703,10 @@
         <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J73" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K73" t="s">
         <v>33</v>
@@ -7733,13 +7727,13 @@
         <v>31</v>
       </c>
       <c r="Q73" t="s">
+        <v>499</v>
+      </c>
+      <c r="R73" t="s">
+        <v>500</v>
+      </c>
+      <c r="S73" t="s">
         <v>501</v>
-      </c>
-      <c r="R73" t="s">
-        <v>502</v>
-      </c>
-      <c r="S73" t="s">
-        <v>503</v>
       </c>
       <c r="T73" t="s">
         <v>165</v>
@@ -7754,15 +7748,15 @@
         <v>31</v>
       </c>
       <c r="X73" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y73" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
         <v>154</v>
@@ -7771,25 +7765,25 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
+        <v>505</v>
+      </c>
+      <c r="E74" t="s">
+        <v>506</v>
+      </c>
+      <c r="F74" t="s">
         <v>507</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>508</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
         <v>509</v>
-      </c>
-      <c r="G74" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I74" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" t="s">
-        <v>511</v>
       </c>
       <c r="K74" t="s">
         <v>33</v>
@@ -7816,7 +7810,7 @@
         <v>314</v>
       </c>
       <c r="S74" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="T74" t="s">
         <v>181</v>
@@ -7831,15 +7825,15 @@
         <v>31</v>
       </c>
       <c r="X74" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Y74" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -7848,10 +7842,10 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E75" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F75" t="s">
         <v>187</v>
@@ -7863,7 +7857,7 @@
         <v>31</v>
       </c>
       <c r="I75" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J75" t="s">
         <v>68</v>
@@ -7890,7 +7884,7 @@
         <v>31</v>
       </c>
       <c r="R75" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S75" t="s">
         <v>31</v>
@@ -7916,7 +7910,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -7925,10 +7919,10 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E76" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F76" t="s">
         <v>221</v>
@@ -7967,7 +7961,7 @@
         <v>31</v>
       </c>
       <c r="R76" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S76" t="s">
         <v>31</v>
@@ -8002,7 +7996,7 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E77" t="s">
         <v>29</v>
@@ -8044,7 +8038,7 @@
         <v>291</v>
       </c>
       <c r="R77" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S77" t="s">
         <v>31</v>
@@ -8070,7 +8064,7 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s">
         <v>154</v>
@@ -8079,13 +8073,13 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
+        <v>525</v>
+      </c>
+      <c r="E78" t="s">
+        <v>526</v>
+      </c>
+      <c r="F78" t="s">
         <v>527</v>
-      </c>
-      <c r="E78" t="s">
-        <v>528</v>
-      </c>
-      <c r="F78" t="s">
-        <v>529</v>
       </c>
       <c r="G78" t="s">
         <v>272</v>
@@ -8121,10 +8115,10 @@
         <v>31</v>
       </c>
       <c r="R78" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S78" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T78" t="s">
         <v>181</v>
@@ -8139,15 +8133,15 @@
         <v>31</v>
       </c>
       <c r="X78" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y78" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s">
         <v>154</v>
@@ -8156,13 +8150,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
+        <v>533</v>
+      </c>
+      <c r="E79" t="s">
+        <v>534</v>
+      </c>
+      <c r="F79" t="s">
         <v>535</v>
-      </c>
-      <c r="E79" t="s">
-        <v>536</v>
-      </c>
-      <c r="F79" t="s">
-        <v>537</v>
       </c>
       <c r="G79" t="s">
         <v>208</v>
@@ -8171,40 +8165,40 @@
         <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J79" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K79" t="s">
         <v>33</v>
       </c>
       <c r="L79" t="s">
+        <v>538</v>
+      </c>
+      <c r="M79" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" t="s">
+        <v>539</v>
+      </c>
+      <c r="S79" t="s">
         <v>540</v>
       </c>
-      <c r="M79" t="s">
-        <v>31</v>
-      </c>
-      <c r="N79" t="s">
-        <v>31</v>
-      </c>
-      <c r="O79" t="s">
-        <v>31</v>
-      </c>
-      <c r="P79" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>31</v>
-      </c>
-      <c r="R79" t="s">
+      <c r="T79" t="s">
         <v>541</v>
-      </c>
-      <c r="S79" t="s">
-        <v>542</v>
-      </c>
-      <c r="T79" t="s">
-        <v>543</v>
       </c>
       <c r="U79" t="s">
         <v>71</v>
@@ -8219,12 +8213,12 @@
         <v>415</v>
       </c>
       <c r="Y79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8233,49 +8227,49 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E80" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F80" t="s">
         <v>50</v>
       </c>
       <c r="G80" t="s">
+        <v>546</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>547</v>
+      </c>
+      <c r="J80" t="s">
         <v>548</v>
       </c>
-      <c r="H80" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>549</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" t="s">
+        <v>31</v>
+      </c>
+      <c r="P80" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" t="s">
         <v>550</v>
-      </c>
-      <c r="K80" t="s">
-        <v>551</v>
-      </c>
-      <c r="L80" t="s">
-        <v>31</v>
-      </c>
-      <c r="M80" t="s">
-        <v>31</v>
-      </c>
-      <c r="N80" t="s">
-        <v>31</v>
-      </c>
-      <c r="O80" t="s">
-        <v>31</v>
-      </c>
-      <c r="P80" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>31</v>
-      </c>
-      <c r="R80" t="s">
-        <v>552</v>
       </c>
       <c r="S80" t="s">
         <v>31</v>
@@ -8301,7 +8295,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B81" t="s">
         <v>154</v>
@@ -8310,17 +8304,17 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
+        <v>552</v>
+      </c>
+      <c r="E81" t="s">
+        <v>553</v>
+      </c>
+      <c r="F81" t="s">
         <v>554</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>555</v>
       </c>
-      <c r="F81" t="s">
-        <v>556</v>
-      </c>
-      <c r="G81" t="s">
-        <v>557</v>
-      </c>
       <c r="H81" t="s">
         <v>31</v>
       </c>
@@ -8328,34 +8322,34 @@
         <v>31</v>
       </c>
       <c r="J81" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K81" t="s">
         <v>33</v>
       </c>
       <c r="L81" t="s">
+        <v>556</v>
+      </c>
+      <c r="M81" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" t="s">
+        <v>31</v>
+      </c>
+      <c r="P81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" t="s">
+        <v>557</v>
+      </c>
+      <c r="S81" t="s">
         <v>558</v>
-      </c>
-      <c r="M81" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" t="s">
-        <v>31</v>
-      </c>
-      <c r="O81" t="s">
-        <v>31</v>
-      </c>
-      <c r="P81" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>31</v>
-      </c>
-      <c r="R81" t="s">
-        <v>559</v>
-      </c>
-      <c r="S81" t="s">
-        <v>560</v>
       </c>
       <c r="T81" t="s">
         <v>363</v>
@@ -8373,12 +8367,12 @@
         <v>405</v>
       </c>
       <c r="Y81" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B82" t="s">
         <v>154</v>
@@ -8387,13 +8381,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
+        <v>561</v>
+      </c>
+      <c r="E82" t="s">
+        <v>562</v>
+      </c>
+      <c r="F82" t="s">
         <v>563</v>
-      </c>
-      <c r="E82" t="s">
-        <v>564</v>
-      </c>
-      <c r="F82" t="s">
-        <v>565</v>
       </c>
       <c r="G82" t="s">
         <v>272</v>
@@ -8402,10 +8396,10 @@
         <v>31</v>
       </c>
       <c r="I82" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J82" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K82" t="s">
         <v>33</v>
@@ -8429,10 +8423,10 @@
         <v>31</v>
       </c>
       <c r="R82" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="S82" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T82" t="s">
         <v>165</v>
@@ -8447,15 +8441,15 @@
         <v>31</v>
       </c>
       <c r="X82" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Y82" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -8464,13 +8458,13 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G83" t="s">
         <v>208</v>
@@ -8479,7 +8473,7 @@
         <v>31</v>
       </c>
       <c r="I83" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J83" t="s">
         <v>96</v>
@@ -8506,7 +8500,7 @@
         <v>31</v>
       </c>
       <c r="R83" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S83" t="s">
         <v>31</v>
@@ -8532,7 +8526,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B84" t="s">
         <v>154</v>
@@ -8541,13 +8535,13 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
+        <v>576</v>
+      </c>
+      <c r="E84" t="s">
+        <v>577</v>
+      </c>
+      <c r="F84" t="s">
         <v>578</v>
-      </c>
-      <c r="E84" t="s">
-        <v>579</v>
-      </c>
-      <c r="F84" t="s">
-        <v>580</v>
       </c>
       <c r="G84" t="s">
         <v>386</v>
@@ -8556,7 +8550,7 @@
         <v>31</v>
       </c>
       <c r="I84" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J84" t="s">
         <v>68</v>
@@ -8583,10 +8577,10 @@
         <v>31</v>
       </c>
       <c r="R84" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S84" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="T84" t="s">
         <v>355</v>
@@ -8604,12 +8598,12 @@
         <v>415</v>
       </c>
       <c r="Y84" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -8618,10 +8612,10 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E85" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F85" t="s">
         <v>50</v>
@@ -8633,7 +8627,7 @@
         <v>31</v>
       </c>
       <c r="I85" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J85" t="s">
         <v>68</v>
@@ -8660,7 +8654,7 @@
         <v>31</v>
       </c>
       <c r="R85" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S85" t="s">
         <v>31</v>
@@ -8686,7 +8680,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -8695,13 +8689,13 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G86" t="s">
         <v>67</v>
@@ -8710,10 +8704,10 @@
         <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J86" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K86" t="s">
         <v>33</v>
@@ -8737,7 +8731,7 @@
         <v>31</v>
       </c>
       <c r="R86" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="S86" t="s">
         <v>31</v>
